--- a/Assets/_TankRes/excel/bullet.xlsx
+++ b/Assets/_TankRes/excel/bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="bullet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>子弹ID</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>btllet1</t>
@@ -737,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -745,9 +748,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1064,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.175" customWidth="1"/>
     <col min="2" max="2" width="18.5083333333333" customWidth="1"/>
@@ -1131,33 +1131,33 @@
       </c>
     </row>
     <row r="4" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="D5" s="4" t="b">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1165,16 +1165,16 @@
       </c>
     </row>
     <row r="6" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="4" t="b">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1182,20 +1182,37 @@
       </c>
     </row>
     <row r="7" ht="30.5" customHeight="1" spans="1:5">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
         <v>1.5</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="4" t="b">
-        <v>1</v>
+      <c r="C7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="30.5" customHeight="1" spans="1:5">
+      <c r="A8" s="3">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/bullet.xlsx
+++ b/Assets/_TankRes/excel/bullet.xlsx
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1186,10 +1186,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="C8" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>

--- a/Assets/_TankRes/excel/bullet.xlsx
+++ b/Assets/_TankRes/excel/bullet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>子弹ID</t>
   </si>
@@ -38,6 +38,9 @@
     <t>子弹攻击间隔</t>
   </si>
   <si>
+    <t>子弹伤害</t>
+  </si>
+  <si>
     <t>是否可穿石墙</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>bulletInterval</t>
+  </si>
+  <si>
+    <t>bulletATK</t>
   </si>
   <si>
     <t>IsCanStone</t>
@@ -1064,22 +1070,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.175" customWidth="1"/>
     <col min="2" max="2" width="18.5083333333333" customWidth="1"/>
     <col min="3" max="3" width="19.5083333333333" customWidth="1"/>
-    <col min="4" max="4" width="19.0083333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.8416666666667" customWidth="1"/>
+    <col min="4" max="5" width="19.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="15.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.25" customHeight="1" spans="1:5">
+    <row r="1" ht="31.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,59 +1101,71 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="31.25" customHeight="1" spans="1:5">
+    <row r="2" ht="31.25" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" ht="30.5" customHeight="1" spans="1:5">
+    <row r="3" ht="30.5" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" ht="30.5" customHeight="1" spans="1:5">
+    <row r="4" ht="30.5" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="5" ht="30.5" customHeight="1" spans="1:5">
+    <row r="5" ht="30.5" customHeight="1" spans="1:6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1157,14 +1175,17 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="b">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="6" ht="30.5" customHeight="1" spans="1:5">
+    <row r="6" ht="30.5" customHeight="1" spans="1:6">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1174,14 +1195,17 @@
       <c r="C6" s="3">
         <v>0.6</v>
       </c>
-      <c r="D6" s="3" t="b">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="7" ht="30.5" customHeight="1" spans="1:5">
+    <row r="7" ht="30.5" customHeight="1" spans="1:6">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1191,14 +1215,17 @@
       <c r="C7" s="3">
         <v>0.2</v>
       </c>
-      <c r="D7" s="3" t="b">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
+      <c r="F7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="8" ht="30.5" customHeight="1" spans="1:5">
+    <row r="8" ht="30.5" customHeight="1" spans="1:6">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1208,11 +1235,14 @@
       <c r="C8" s="3">
         <v>0.4</v>
       </c>
-      <c r="D8" s="3" t="b">
+      <c r="D8" s="3">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_TankRes/excel/bullet.xlsx
+++ b/Assets/_TankRes/excel/bullet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="bullet" sheetId="1" r:id="rId1"/>
@@ -1073,16 +1073,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.175" customWidth="1"/>
-    <col min="2" max="2" width="18.5083333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.5083333333333" customWidth="1"/>
-    <col min="4" max="5" width="19.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="15.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.1759259259259" customWidth="1"/>
+    <col min="2" max="2" width="18.5092592592593" customWidth="1"/>
+    <col min="3" max="3" width="19.5092592592593" customWidth="1"/>
+    <col min="4" max="5" width="19.0092592592593" customWidth="1"/>
+    <col min="6" max="6" width="15.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.25" customHeight="1" spans="1:6">
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="3">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="C7" s="3">
         <v>0.2</v>
@@ -1230,10 +1230,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="3">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="C8" s="3">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D8" s="3">
         <v>2</v>
